--- a/offers/downloadableOffers/newMillsSalesOfferSpeedo.xlsx
+++ b/offers/downloadableOffers/newMillsSalesOfferSpeedo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie 2TB/Work/2018-2019/NewMillsGroup/Webpages/NewMillsGroupNew/NewMillsGroup/offers/downloadableOffers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomfletcher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4400" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="38400" yWindow="4420" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Description</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>1083677-NAVY/BLACK</t>
-  </si>
-  <si>
-    <t>info@newmillsgroup.co.uk</t>
-  </si>
-  <si>
-    <t>01572 335 151</t>
   </si>
 </sst>
 </file>
@@ -271,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,53 +293,44 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -369,15 +354,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>40636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -385,7 +370,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555322CD-0B4C-1147-93F1-DF1323574A13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{555322CD-0B4C-1147-93F1-DF1323574A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -419,15 +404,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>172294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1200472</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>347131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -474,15 +459,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1464733</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>107057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2957407</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>323699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -529,15 +514,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2463799</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>808964</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>808965</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>153661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -874,197 +859,187 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="23" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="23" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="23" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="2:13" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="8">
-        <f>SUM(D13:D15)</f>
-        <v>29</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8">
+        <f>SUM(C12:C14)</f>
+        <v>26</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <v>49.99</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="18">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>49.99</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C14" s="18">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
         <v>49.99</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="2:13" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="19">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="13">
-        <v>49.99</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:13" s="16" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="19">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="13">
-        <v>49.99</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:G7"/>
+    <mergeCell ref="E1:F6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="javascript:void(0)"/>
-    <hyperlink ref="B14" r:id="rId2" display="javascript:void(0)"/>
-    <hyperlink ref="B15" r:id="rId3" display="javascript:void(0)"/>
-    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId1" display="javascript:void(0)"/>
+    <hyperlink ref="A13" r:id="rId2" display="javascript:void(0)"/>
+    <hyperlink ref="A14" r:id="rId3" display="javascript:void(0)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>